--- a/REGULAR/ANACAY, LEVIE B..xlsx
+++ b/REGULAR/ANACAY, LEVIE B..xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="484">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1486,6 +1486,9 @@
   </si>
   <si>
     <t>10/17-21/2023</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -4164,8 +4167,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K767" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K767"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K769" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K769"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -23680,12 +23683,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K767"/>
+  <dimension ref="A2:K769"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4815" topLeftCell="A704" activePane="bottomLeft"/>
+      <pane ySplit="4815" topLeftCell="A707" activePane="bottomLeft"/>
       <selection activeCell="F11" sqref="F11"/>
-      <selection pane="bottomLeft" activeCell="B714" sqref="B714"/>
+      <selection pane="bottomLeft" activeCell="K715" sqref="K715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23842,7 +23845,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.1229999999998768</v>
+        <v>4.3729999999998768</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -23852,7 +23855,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.541999999999973</v>
+        <v>15.791999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -40074,13 +40077,15 @@
       <c r="B713" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C713" s="13"/>
+      <c r="C713" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D713" s="39"/>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G713" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H713" s="39">
         <v>1</v>
@@ -40092,10 +40097,10 @@
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A714" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B714" s="20"/>
+      <c r="A714" s="40"/>
+      <c r="B714" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C714" s="13"/>
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
@@ -40104,16 +40109,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H714" s="39"/>
+      <c r="H714" s="39">
+        <v>2</v>
+      </c>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20"/>
+      <c r="K714" s="49" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B715" s="20"/>
+      <c r="A715" s="40"/>
+      <c r="B715" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
@@ -40125,11 +40134,13 @@
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
+      <c r="K715" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -40147,7 +40158,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -40165,7 +40176,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -40183,7 +40194,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -40201,25 +40212,25 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B720" s="15"/>
-      <c r="C720" s="41"/>
-      <c r="D720" s="42"/>
+        <v>45200</v>
+      </c>
+      <c r="B720" s="20"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="39"/>
       <c r="E720" s="9"/>
-      <c r="F720" s="15"/>
-      <c r="G720" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H720" s="42"/>
+      <c r="F720" s="20"/>
+      <c r="G720" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H720" s="39"/>
       <c r="I720" s="9"/>
-      <c r="J720" s="12"/>
-      <c r="K720" s="15"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="20"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -40237,25 +40248,25 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B722" s="20"/>
-      <c r="C722" s="13"/>
-      <c r="D722" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B722" s="15"/>
+      <c r="C722" s="41"/>
+      <c r="D722" s="42"/>
       <c r="E722" s="9"/>
-      <c r="F722" s="20"/>
-      <c r="G722" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H722" s="39"/>
+      <c r="F722" s="15"/>
+      <c r="G722" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="42"/>
       <c r="I722" s="9"/>
-      <c r="J722" s="11"/>
-      <c r="K722" s="20"/>
+      <c r="J722" s="12"/>
+      <c r="K722" s="15"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -40273,7 +40284,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -40291,7 +40302,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -40309,7 +40320,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -40327,7 +40338,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -40345,7 +40356,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -40363,7 +40374,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -40381,7 +40392,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -40399,7 +40410,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -40417,7 +40428,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -40435,7 +40446,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -40453,7 +40464,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -40471,7 +40482,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -40489,7 +40500,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -40507,7 +40518,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -40525,7 +40536,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -40543,7 +40554,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -40561,7 +40572,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -40579,7 +40590,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -40597,7 +40608,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -40615,7 +40626,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -40633,7 +40644,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -40651,7 +40662,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -40669,7 +40680,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -40687,7 +40698,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -40705,7 +40716,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -40723,7 +40734,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -40741,7 +40752,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -40759,7 +40770,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -40777,7 +40788,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -40795,7 +40806,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -40813,7 +40824,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -40831,7 +40842,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -40849,7 +40860,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -40867,7 +40878,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -40885,7 +40896,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -40903,7 +40914,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -40921,7 +40932,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -40939,7 +40950,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -40957,7 +40968,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -40975,7 +40986,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -40993,7 +41004,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -41011,7 +41022,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -41029,7 +41040,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -41047,7 +41058,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -41062,6 +41073,42 @@
       <c r="I767" s="9"/>
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A768" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B768" s="20"/>
+      <c r="C768" s="13"/>
+      <c r="D768" s="39"/>
+      <c r="E768" s="9"/>
+      <c r="F768" s="20"/>
+      <c r="G768" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H768" s="39"/>
+      <c r="I768" s="9"/>
+      <c r="J768" s="11"/>
+      <c r="K768" s="20"/>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B769" s="20"/>
+      <c r="C769" s="13"/>
+      <c r="D769" s="39"/>
+      <c r="E769" s="9"/>
+      <c r="F769" s="20"/>
+      <c r="G769" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H769" s="39"/>
+      <c r="I769" s="9"/>
+      <c r="J769" s="11"/>
+      <c r="K769" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
